--- a/实验文档/基本表2.0.xlsx
+++ b/实验文档/基本表2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10140" windowHeight="7950" tabRatio="746" firstSheet="7" activeTab="9"/>
+    <workbookView windowWidth="10140" windowHeight="7950" tabRatio="746" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="car_info" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247">
   <si>
     <t>列名</t>
   </si>
@@ -37,6 +37,18 @@
     <t>约束</t>
   </si>
   <si>
+    <t>car_id</t>
+  </si>
+  <si>
+    <t>车辆编号</t>
+  </si>
+  <si>
+    <t>smallint</t>
+  </si>
+  <si>
+    <t>主键、自增</t>
+  </si>
+  <si>
     <t>car_num</t>
   </si>
   <si>
@@ -46,7 +58,7 @@
     <t>char(10)</t>
   </si>
   <si>
-    <t>主键、车牌号</t>
+    <t>车牌号</t>
   </si>
   <si>
     <t>car_model</t>
@@ -175,6 +187,18 @@
     <t>保险种类</t>
   </si>
   <si>
+    <t>记录创建时间</t>
+  </si>
+  <si>
+    <t>删除位</t>
+  </si>
+  <si>
+    <t>model_id</t>
+  </si>
+  <si>
+    <t>车型编号</t>
+  </si>
+  <si>
     <t>car_model_id</t>
   </si>
   <si>
@@ -214,9 +238,6 @@
     <t>座位数</t>
   </si>
   <si>
-    <t>smallint</t>
-  </si>
-  <si>
     <t>car_doors</t>
   </si>
   <si>
@@ -277,6 +298,9 @@
     <t>音箱</t>
   </si>
   <si>
+    <t>char(2)</t>
+  </si>
+  <si>
     <t>car_seats_type</t>
   </si>
   <si>
@@ -370,9 +394,6 @@
     <t>门店编号</t>
   </si>
   <si>
-    <t>主键、自增</t>
-  </si>
-  <si>
     <t>store_addr</t>
   </si>
   <si>
@@ -403,268 +424,316 @@
     <t>外键、关联到管理员账号*</t>
   </si>
   <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>用户编号</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>user_sex</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>value in('男','女')</t>
+  </si>
+  <si>
+    <t>user_age</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>char(3)</t>
+  </si>
+  <si>
+    <t>user_ident</t>
+  </si>
+  <si>
+    <t>身份证号</t>
+  </si>
+  <si>
+    <t>char(18)</t>
+  </si>
+  <si>
+    <t>user_tel</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>user_office</t>
+  </si>
+  <si>
+    <t>工作单位</t>
+  </si>
+  <si>
+    <t>user_addr</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>user_post</t>
+  </si>
+  <si>
+    <t>邮编</t>
+  </si>
+  <si>
+    <t>char(6)</t>
+  </si>
+  <si>
+    <t>user_email</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>admin_id</t>
+  </si>
+  <si>
+    <t>管理员编号</t>
+  </si>
+  <si>
+    <t>admin_name</t>
+  </si>
+  <si>
+    <t>admin_sex</t>
+  </si>
+  <si>
+    <t>admin_age</t>
+  </si>
+  <si>
+    <t>admin_ident</t>
+  </si>
+  <si>
+    <t>身份证</t>
+  </si>
+  <si>
+    <t>admin_tel</t>
+  </si>
+  <si>
+    <t>admin_email</t>
+  </si>
+  <si>
+    <t>admin_type</t>
+  </si>
+  <si>
+    <t>管理员类型</t>
+  </si>
+  <si>
+    <t>大中华地区管理员、门店管理员、违章处理管理员</t>
+  </si>
+  <si>
+    <t>drive_id</t>
+  </si>
+  <si>
+    <t>驾驶证表编号</t>
+  </si>
+  <si>
+    <t>user_drive</t>
+  </si>
+  <si>
+    <t>驾驶证号</t>
+  </si>
+  <si>
+    <t>char(12)</t>
+  </si>
+  <si>
+    <t>drive_type</t>
+  </si>
+  <si>
+    <t>驾驶证类型</t>
+  </si>
+  <si>
+    <t>drive_age</t>
+  </si>
+  <si>
+    <t>驾龄</t>
+  </si>
+  <si>
+    <t>drive_start_date</t>
+  </si>
+  <si>
+    <t>发证日期</t>
+  </si>
+  <si>
+    <t>drive_end_date</t>
+  </si>
+  <si>
+    <t>失效日期</t>
+  </si>
+  <si>
+    <t>保留 此表</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>订单编号</t>
+  </si>
+  <si>
     <t>user_num</t>
   </si>
   <si>
-    <t>用户编号</t>
-  </si>
-  <si>
-    <t>手机号绑定，主键</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>user_sex</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>char(2)</t>
-  </si>
-  <si>
-    <t>value in('男','女')</t>
-  </si>
-  <si>
-    <t>user_age</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>char(3)</t>
-  </si>
-  <si>
-    <t>user_ident</t>
-  </si>
-  <si>
-    <t>身份证号</t>
-  </si>
-  <si>
-    <t>char(18)</t>
-  </si>
-  <si>
-    <t>user_tel</t>
-  </si>
-  <si>
-    <t>电话</t>
-  </si>
-  <si>
-    <t>user_office</t>
-  </si>
-  <si>
-    <t>工作单位</t>
-  </si>
-  <si>
-    <t>user_addr</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>user_post</t>
-  </si>
-  <si>
-    <t>邮编</t>
-  </si>
-  <si>
-    <t>char(6)</t>
-  </si>
-  <si>
-    <t>user_email</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>admin_num</t>
-  </si>
-  <si>
-    <t>管理员编号</t>
-  </si>
-  <si>
-    <t>主键,手机号</t>
-  </si>
-  <si>
-    <t>admin_name</t>
-  </si>
-  <si>
-    <t>admin_sex</t>
-  </si>
-  <si>
-    <t>admin_age</t>
-  </si>
-  <si>
-    <t>admin_ident</t>
-  </si>
-  <si>
-    <t>身份证</t>
-  </si>
-  <si>
-    <t>admin_tel</t>
-  </si>
-  <si>
-    <t>admin_email</t>
-  </si>
-  <si>
-    <t>admin_type</t>
-  </si>
-  <si>
-    <t>管理员类型</t>
-  </si>
-  <si>
-    <t>大中华地区管理员、门店管理员、违章处理管理员</t>
-  </si>
-  <si>
-    <t>user_drive</t>
-  </si>
-  <si>
-    <t>驾驶证号</t>
-  </si>
-  <si>
-    <t>char(12)</t>
-  </si>
-  <si>
-    <t>drive_type</t>
-  </si>
-  <si>
-    <t>驾驶证类型</t>
-  </si>
-  <si>
-    <t>drive_age</t>
-  </si>
-  <si>
-    <t>驾龄</t>
-  </si>
-  <si>
-    <t>drive_start_date</t>
-  </si>
-  <si>
-    <t>发证日期</t>
-  </si>
-  <si>
-    <t>drive_end_date</t>
-  </si>
-  <si>
-    <t>失效日期</t>
-  </si>
-  <si>
-    <t>删除此表</t>
+    <t>外键，关联到用户信息表</t>
+  </si>
+  <si>
+    <t>车辆号码</t>
+  </si>
+  <si>
+    <t>外键，关联到车辆信息表</t>
+  </si>
+  <si>
+    <t>驾驶证编号</t>
+  </si>
+  <si>
+    <t>实际驾驶员，关联到驾驶员信息表？</t>
+  </si>
+  <si>
+    <t>pick_addr</t>
+  </si>
+  <si>
+    <t>取车门店编号</t>
+  </si>
+  <si>
+    <t>外键，关联到门店信息表</t>
+  </si>
+  <si>
+    <t>drop_addr</t>
+  </si>
+  <si>
+    <t>还车门店编号</t>
+  </si>
+  <si>
+    <t>pick_time</t>
+  </si>
+  <si>
+    <t>取车时间</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>drop_time</t>
+  </si>
+  <si>
+    <t>最终还车时间</t>
+  </si>
+  <si>
+    <t>relet_day</t>
+  </si>
+  <si>
+    <t>续租天数</t>
+  </si>
+  <si>
+    <t>rent_money</t>
+  </si>
+  <si>
+    <t>租车金额（不加上违章）</t>
+  </si>
+  <si>
+    <t>删除。通过model_info获得</t>
+  </si>
+  <si>
+    <t>actual_deposit</t>
+  </si>
+  <si>
+    <t>实收押金</t>
+  </si>
+  <si>
+    <t>breaken_bill</t>
+  </si>
+  <si>
+    <t>维修费用</t>
+  </si>
+  <si>
+    <t>actual_money</t>
+  </si>
+  <si>
+    <t>实收总费用</t>
+  </si>
+  <si>
+    <t>illegal_info</t>
+  </si>
+  <si>
+    <t>违章信息</t>
+  </si>
+  <si>
+    <t>char(255)</t>
+  </si>
+  <si>
+    <t>还车时检索违章记录表</t>
+  </si>
+  <si>
+    <t>illegal_bill</t>
+  </si>
+  <si>
+    <t>违章费用</t>
+  </si>
+  <si>
+    <t>创建人、创建时间、删除位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不能用天数、车有一个当前所在门店、所有主键自增 </t>
+  </si>
+  <si>
+    <t>在订单表中删除还车门店、这样车辆一直属于取车门店？</t>
+  </si>
+  <si>
+    <t>保险信息不做</t>
+  </si>
+  <si>
+    <t>实际驾驶员、驾驶员表</t>
+  </si>
+  <si>
+    <t>实际押金、实收金额</t>
+  </si>
+  <si>
+    <t>实际押金=押金+租天数*日租价格</t>
+  </si>
+  <si>
+    <t>续租天数全部 改成datetime</t>
+  </si>
+  <si>
+    <t>relet_id</t>
+  </si>
+  <si>
+    <t>续租订单id</t>
+  </si>
+  <si>
+    <t>主键、自增,不得不自增？</t>
   </si>
   <si>
     <t>order_num</t>
   </si>
   <si>
-    <t>订单编号</t>
-  </si>
-  <si>
-    <t>主键,由订单提交时间+用户编号组成</t>
-  </si>
-  <si>
-    <t>外键，关联到用户信息表</t>
-  </si>
-  <si>
-    <t>车辆号码</t>
-  </si>
-  <si>
-    <t>外键，关联到车辆信息表</t>
-  </si>
-  <si>
-    <t>驾驶证编号</t>
-  </si>
-  <si>
-    <t>注册时手动输入？</t>
-  </si>
-  <si>
-    <t>pick_addr</t>
-  </si>
-  <si>
-    <t>取车门店编号</t>
-  </si>
-  <si>
-    <t>外键，关联到门店信息表</t>
-  </si>
-  <si>
-    <t>drop_addr</t>
-  </si>
-  <si>
-    <t>还车门店编号</t>
-  </si>
-  <si>
-    <t>pick_time</t>
-  </si>
-  <si>
-    <t>取车时间</t>
-  </si>
-  <si>
-    <t>initial_drop_time</t>
-  </si>
-  <si>
-    <t>初始还车时间</t>
-  </si>
-  <si>
-    <t>relet_day</t>
-  </si>
-  <si>
-    <t>续租天数</t>
-  </si>
-  <si>
-    <t>总的续租天数，续租一次更新一次？续租记录另计？</t>
-  </si>
-  <si>
-    <t>rent_money</t>
-  </si>
-  <si>
-    <t>租车金额（不加上违章）</t>
-  </si>
-  <si>
-    <t>删除。通过model_info获得</t>
-  </si>
-  <si>
-    <t>breaken_bill</t>
-  </si>
-  <si>
-    <t>维修费用</t>
-  </si>
-  <si>
-    <t>illegal_info</t>
-  </si>
-  <si>
-    <t>违章信息</t>
-  </si>
-  <si>
-    <t>char(255)</t>
-  </si>
-  <si>
-    <t>还车时检索违章记录表</t>
-  </si>
-  <si>
-    <t>illegal_bill</t>
-  </si>
-  <si>
-    <t>违章费用</t>
-  </si>
-  <si>
-    <t>relet_id</t>
-  </si>
-  <si>
-    <t>续租订单id</t>
-  </si>
-  <si>
-    <t>主键、自增,不得不自增？</t>
-  </si>
-  <si>
     <t>外键、关联到订单表</t>
   </si>
   <si>
-    <t>relet_apply_day</t>
-  </si>
-  <si>
-    <t>申请续租时间（最后一次操作时间）</t>
+    <t>relet_start_time</t>
+  </si>
+  <si>
+    <t>续租起始时间</t>
+  </si>
+  <si>
+    <t>relet_end_time</t>
+  </si>
+  <si>
+    <t>续租结束时间</t>
+  </si>
+  <si>
+    <t>与rent_order表同步更新</t>
+  </si>
+  <si>
+    <t>relet_record_create_time</t>
   </si>
   <si>
     <t>illegal_id</t>
@@ -689,6 +758,9 @@
   </si>
   <si>
     <t>违章金额</t>
+  </si>
+  <si>
+    <t>违章信息创建时间</t>
   </si>
   <si>
     <t>违章处理管理员管理此表</t>
@@ -720,6 +792,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -742,7 +876,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,37 +890,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -795,32 +898,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,24 +913,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,6 +927,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -870,6 +942,30 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -885,7 +981,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,7 +993,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,55 +1089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,13 +1101,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,73 +1125,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,6 +1136,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1082,17 +1169,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,25 +1211,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1172,10 +1244,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,133 +1256,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1321,14 +1393,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1684,16 +1756,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1735,7 +1807,7 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1749,30 +1821,38 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6"/>
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1784,20 +1864,12 @@
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1805,35 +1877,35 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1843,97 +1915,121 @@
       <c r="C13" t="s">
         <v>32</v>
       </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:3">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
         <v>49</v>
       </c>
-      <c r="C20" t="s">
-        <v>14</v>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="A6:D8"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A7:D9"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1943,10 +2039,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1970,79 +2066,79 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
@@ -2051,9 +2147,19 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="A9:C12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2063,10 +2169,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2092,35 +2198,35 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -2128,101 +2234,104 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -2230,177 +2339,198 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
         <v>86</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
         <v>91</v>
       </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>102</v>
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" t="s">
-        <v>105</v>
+        <v>6</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2442,78 +2572,78 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>112</v>
+      <c r="A8" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4"/>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="4"/>
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2527,13 +2657,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -2557,63 +2687,73 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2625,10 +2765,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="$A10:$XFD10"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2655,118 +2795,128 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2779,10 +2929,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2809,96 +2959,106 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2910,10 +3070,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A11"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2940,79 +3100,90 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>176</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4"/>
+      <c r="A9" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="4"/>
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A9:A12"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -3022,10 +3193,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3052,192 +3223,262 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>225</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3247,13 +3488,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
@@ -3275,52 +3516,71 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/实验文档/基本表2.0.xlsx
+++ b/实验文档/基本表2.0.xlsx
@@ -700,7 +700,7 @@
     <t>实际押金=押金+租天数*日租价格</t>
   </si>
   <si>
-    <t>续租天数全部 改成datetime</t>
+    <t>续租天数改成续租起始时间和结束时间  date改成datetime</t>
   </si>
   <si>
     <t>relet_id</t>
@@ -1386,7 +1386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1400,6 +1400,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1821,7 +1824,7 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1835,7 +1838,7 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -1847,27 +1850,27 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -2505,7 +2508,7 @@
       <c r="C27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3196,7 +3199,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3439,32 +3442,32 @@
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="A25" s="5" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>223</v>
       </c>
       <c r="B26" t="s">
@@ -3472,7 +3475,7 @@
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="A27" s="5" t="s">
         <v>225</v>
       </c>
     </row>
